--- a/manual/day5 excel check.xlsx
+++ b/manual/day5 excel check.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseyan/Documents/GitHub/Prosperity/manual/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axrpo\Documents\GitHub\Prosperity\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F7AD3E-3833-8B43-9419-E46B0168DA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826C6993-82D5-4419-99F2-9210282EDDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="7560" windowWidth="28040" windowHeight="17440" xr2:uid="{86C07BAC-4AF2-EC4B-A90A-629B641C35EE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{86C07BAC-4AF2-EC4B-A90A-629B641C35EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Refrigerators</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Celebrity lawsuit</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Nick</t>
   </si>
 </sst>
 </file>
@@ -119,7 +125,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -160,7 +166,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -545,27 +551,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5044D476-2057-6A42-8FBC-AA553443FC99}">
-  <dimension ref="B1:K12"/>
+  <dimension ref="B1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
       <c r="F1" t="s">
         <v>9</v>
       </c>
@@ -576,7 +585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -584,24 +593,27 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>0.02</v>
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>-5</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <f>F2^2 * 90</f>
-        <v>90</v>
+        <v>1440</v>
       </c>
       <c r="H2">
-        <f>$D$12*F2/100*D2 - G2</f>
-        <v>60</v>
+        <f>$C$12*F2/100*D2 - G2</f>
+        <v>1560</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -609,21 +621,24 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>0.06</v>
+        <v>0.12</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G10" si="0">F3^2 * 90</f>
-        <v>810</v>
+        <v>2250</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H10" si="1">$D$12*F3/100*D3 - G3</f>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+        <f>$C$12*F3/100*D3 - G3</f>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -631,21 +646,24 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>0.01</v>
+        <v>-0.2</v>
       </c>
       <c r="E4">
-        <v>-0.05</v>
+        <v>-6</v>
+      </c>
+      <c r="F4">
+        <v>-8</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5760</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+        <f>$C$12*F4/100*D4 - G4</f>
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -655,19 +673,22 @@
       <c r="D5">
         <v>-0.2</v>
       </c>
+      <c r="E5">
+        <v>-8</v>
+      </c>
       <c r="F5">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>5760</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+        <f>$C$12*F5/100*D5 - G5</f>
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -675,18 +696,24 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+        <f>$C$12*F6/100*D6 - G6</f>
+        <v>765.00000000000023</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -694,21 +721,24 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>0.05</v>
+        <v>0.25</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>9000</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+        <f>$C$12*F7/100*D7 - G7</f>
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -716,21 +746,24 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>-0.5</v>
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="E8">
+        <v>-15</v>
       </c>
       <c r="F8">
-        <v>-17</v>
+        <v>-24</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>26010</v>
+        <v>51840</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
-        <v>37740</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+        <f>$C$12*F8/100*D8 - G8</f>
+        <v>50759.999999999985</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -738,21 +771,24 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>-0.05</v>
+        <v>-0.1</v>
+      </c>
+      <c r="E9">
+        <v>-10</v>
       </c>
       <c r="F9">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>1440</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+        <f>$C$12*F9/100*D9 - G9</f>
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -760,27 +796,62 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>-0.01</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+        <f>$C$12*F10/100*D10 - G10</f>
+        <v>765.00000000000023</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>13</v>
       </c>
+      <c r="C12">
+        <v>750000</v>
+      </c>
       <c r="D12">
-        <v>750000</v>
+        <f>SUMIF(D2:D10,"&gt;0")-SUMIF(D2:D10,"&lt;0")</f>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="E12">
+        <f>SUMIF(E2:E10,"&gt;0")-SUMIF(E2:E10,"&lt;0")</f>
+        <v>74</v>
       </c>
       <c r="F12">
         <f>SUMIF(F2:F10,"&gt;0")-SUMIF(F2:F10,"&lt;0")</f>
-        <v>35</v>
+        <v>69</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H10)</f>
+        <v>79889.999999999985</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <f>SQRT(C12/90)/2</f>
+        <v>45.643546458763844</v>
+      </c>
+      <c r="D14">
+        <f>D12/COUNT(D2:D10)</f>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="E14">
+        <f>100/750</f>
+        <v>0.13333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/manual/day5 excel check.xlsx
+++ b/manual/day5 excel check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axrpo\Documents\GitHub\Prosperity\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826C6993-82D5-4419-99F2-9210282EDDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF4A7CE-BBA9-4AF4-B069-A27A37BF6033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{86C07BAC-4AF2-EC4B-A90A-629B641C35EE}"/>
+    <workbookView xWindow="0" yWindow="3840" windowWidth="28800" windowHeight="15885" xr2:uid="{86C07BAC-4AF2-EC4B-A90A-629B641C35EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -551,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5044D476-2057-6A42-8FBC-AA553443FC99}">
-  <dimension ref="B1:K14"/>
+  <dimension ref="B1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -606,7 +606,7 @@
         <v>1440</v>
       </c>
       <c r="H2">
-        <f>$C$12*F2/100*D2 - G2</f>
+        <f t="shared" ref="H2:H10" si="0">$C$12*F2/100*D2 - G2</f>
         <v>1560</v>
       </c>
       <c r="K2" t="s">
@@ -621,21 +621,21 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>0.12</v>
+        <v>-0.04</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G10" si="0">F3^2 * 90</f>
-        <v>2250</v>
+        <f t="shared" ref="G3:G10" si="1">F3^2 * 90</f>
+        <v>360</v>
       </c>
       <c r="H3">
-        <f>$C$12*F3/100*D3 - G3</f>
-        <v>2250</v>
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -646,21 +646,21 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>-0.2</v>
+        <v>-0.25</v>
       </c>
       <c r="E4">
         <v>-6</v>
       </c>
       <c r="F4">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="G4">
+        <f t="shared" si="1"/>
+        <v>9000</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="0"/>
-        <v>5760</v>
-      </c>
-      <c r="H4">
-        <f>$C$12*F4/100*D4 - G4</f>
-        <v>6240</v>
+        <v>9750</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -680,11 +680,11 @@
         <v>-8</v>
       </c>
       <c r="G5">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
-        <v>5760</v>
-      </c>
-      <c r="H5">
-        <f>$C$12*F5/100*D5 - G5</f>
         <v>6240</v>
       </c>
     </row>
@@ -705,11 +705,11 @@
         <v>3</v>
       </c>
       <c r="G6">
+        <f t="shared" si="1"/>
+        <v>810</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
-        <v>810</v>
-      </c>
-      <c r="H6">
-        <f>$C$12*F6/100*D6 - G6</f>
         <v>765.00000000000023</v>
       </c>
     </row>
@@ -730,11 +730,11 @@
         <v>10</v>
       </c>
       <c r="G7">
+        <f t="shared" si="1"/>
+        <v>9000</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
-        <v>9000</v>
-      </c>
-      <c r="H7">
-        <f>$C$12*F7/100*D7 - G7</f>
         <v>9750</v>
       </c>
     </row>
@@ -755,11 +755,11 @@
         <v>-24</v>
       </c>
       <c r="G8">
+        <f t="shared" si="1"/>
+        <v>51840</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>51840</v>
-      </c>
-      <c r="H8" s="1">
-        <f>$C$12*F8/100*D8 - G8</f>
         <v>50759.999999999985</v>
       </c>
     </row>
@@ -771,21 +771,21 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="E9">
         <v>-10</v>
       </c>
       <c r="F9">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="G9">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
-        <v>1440</v>
-      </c>
-      <c r="H9">
-        <f>$C$12*F9/100*D9 - G9</f>
-        <v>1560</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -805,11 +805,11 @@
         <v>3</v>
       </c>
       <c r="G10">
+        <f t="shared" si="1"/>
+        <v>810</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>810</v>
-      </c>
-      <c r="H10">
-        <f>$C$12*F10/100*D10 - G10</f>
         <v>765.00000000000023</v>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="D12">
         <f>SUMIF(D2:D10,"&gt;0")-SUMIF(D2:D10,"&lt;0")</f>
-        <v>1.6800000000000002</v>
+        <v>1.6700000000000002</v>
       </c>
       <c r="E12">
         <f>SUMIF(E2:E10,"&gt;0")-SUMIF(E2:E10,"&lt;0")</f>
@@ -834,7 +834,7 @@
       </c>
       <c r="H12">
         <f>SUM(H2:H10)</f>
-        <v>79889.999999999985</v>
+        <v>82079.999999999985</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -847,11 +847,17 @@
       </c>
       <c r="D14">
         <f>D12/COUNT(D2:D10)</f>
-        <v>0.18666666666666668</v>
+        <v>0.18555555555555558</v>
       </c>
       <c r="E14">
         <f>100/750</f>
         <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f>1-465/480</f>
+        <v>3.125E-2</v>
       </c>
     </row>
   </sheetData>
